--- a/output/Naujaat/k_3/clusters_data.xlsx
+++ b/output/Naujaat/k_3/clusters_data.xlsx
@@ -20,6 +20,225 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -203,9 +422,6 @@
     <t>722</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>726</t>
   </si>
   <si>
@@ -303,222 +519,6 @@
   </si>
   <si>
     <t>116</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>1503</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>814</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>104</t>
   </si>
 </sst>
 </file>
@@ -881,181 +881,220 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>16</v>
-      </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BE2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BF2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BI2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BJ2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1063,112 +1102,187 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="W3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AD3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AF3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AG3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AH3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AI3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AJ3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AK3" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1176,225 +1290,111 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="V4" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="W4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="X4" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AA4" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="AB4" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="AD4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="AE4" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="AF4" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="AG4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AH4" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AI4" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="AK4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BW4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1421,6 +1421,9 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1438,9 +1441,6 @@
       </c>
       <c r="B4">
         <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/Naujaat/k_3/clusters_data.xlsx
+++ b/output/Naujaat/k_3/clusters_data.xlsx
@@ -20,6 +20,291 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>726</t>
+  </si>
+  <si>
+    <t>724</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
@@ -95,9 +380,6 @@
     <t>31</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>95</t>
   </si>
   <si>
@@ -237,288 +519,6 @@
   </si>
   <si>
     <t>104</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>719</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>725</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>116</t>
   </si>
 </sst>
 </file>
@@ -881,220 +881,181 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -1102,187 +1063,112 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="Q3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="R3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="S3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" t="s">
+      <c r="T3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
+      <c r="U3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" t="s">
+      <c r="V3" t="s">
         <v>80</v>
       </c>
-      <c r="K3" t="s">
+      <c r="W3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" t="s">
+      <c r="X3" t="s">
         <v>82</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Y3" t="s">
         <v>83</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Z3" t="s">
         <v>84</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AB3" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AC3" t="s">
         <v>87</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AD3" t="s">
         <v>88</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AE3" t="s">
         <v>89</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AF3" t="s">
         <v>90</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AG3" t="s">
         <v>91</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AH3" t="s">
         <v>92</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AI3" t="s">
         <v>93</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AJ3" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AK3" t="s">
         <v>95</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -1290,111 +1176,225 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S4" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
+      <c r="AP4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="AQ4" t="s">
         <v>135</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AR4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AS4" t="s">
         <v>137</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AT4" t="s">
         <v>138</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AU4" t="s">
         <v>139</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AV4" t="s">
         <v>140</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AW4" t="s">
         <v>141</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AX4" t="s">
         <v>142</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AY4" t="s">
         <v>143</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AZ4" t="s">
         <v>144</v>
       </c>
-      <c r="O4" t="s">
+      <c r="BA4" t="s">
         <v>145</v>
       </c>
-      <c r="P4" t="s">
+      <c r="BB4" t="s">
         <v>146</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="BC4" t="s">
         <v>147</v>
       </c>
-      <c r="R4" t="s">
+      <c r="BD4" t="s">
         <v>148</v>
       </c>
-      <c r="S4" t="s">
+      <c r="BE4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" t="s">
+      <c r="BF4" t="s">
         <v>150</v>
       </c>
-      <c r="U4" t="s">
+      <c r="BG4" t="s">
         <v>151</v>
       </c>
-      <c r="V4" t="s">
+      <c r="BH4" t="s">
         <v>152</v>
       </c>
-      <c r="W4" t="s">
+      <c r="BI4" t="s">
         <v>153</v>
       </c>
-      <c r="X4" t="s">
+      <c r="BJ4" t="s">
         <v>154</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="BK4" t="s">
         <v>155</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="BL4" t="s">
         <v>156</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="BM4" t="s">
         <v>157</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="BN4" t="s">
         <v>158</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="BO4" t="s">
         <v>159</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="BP4" t="s">
         <v>160</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="BQ4" t="s">
         <v>161</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="BR4" t="s">
         <v>162</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="BS4" t="s">
         <v>163</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="BT4" t="s">
         <v>164</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="BU4" t="s">
         <v>165</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="BV4" t="s">
         <v>166</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="BW4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1405,42 +1405,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
